--- a/RESIS.xlsx
+++ b/RESIS.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{AF7CDE71-21F3-9849-8BFF-B604C5017A5E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{AF7CDE71-21F3-9849-8BFF-B604C5017A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="市区町村" sheetId="1" r:id="rId1"/>
     <sheet name="人口推移" sheetId="2" r:id="rId2"/>
+    <sheet name="観光資源数" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="52">
   <si>
     <t>千代田区</t>
   </si>
@@ -96,6 +97,9 @@
     <t>江戸川区</t>
   </si>
   <si>
+    <t>区名</t>
+  </si>
+  <si>
     <t>総人口</t>
     <rPh sb="0" eb="3">
       <t>ソウジンコウ</t>
@@ -122,6 +126,78 @@
       <t>ロウネンジンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観光資源数</t>
+  </si>
+  <si>
+    <t>資源名</t>
+  </si>
+  <si>
+    <t>ニコライ堂 | 皇居東御苑 | 神田神保町書店街 | 神田明神 | 大踊 | 東京都庁舎</t>
+  </si>
+  <si>
+    <t>もんじゃストリート | 勝鬨橋・永代橋・清洲橋 | 晴海アイランドトリトンスクエア地区 | 中央通り（銀座通り） | 東京湾大華火祭 | 浜離宮恩賜庭園 | 名橋「日本橋」と歴史的建造物群</t>
+  </si>
+  <si>
+    <t>ＮＨＫ放送博物館／東京放送局跡 | お台場海浜公園 | 旧芝離宮恩賜庭園 | 旧新橋停車場跡 | 国立新美術館 | 新橋駅西口ＳＬ広場 | 神引展望台 | 神宮外苑／イチョウ並木 | 泉岳寺 | 増上寺 | 台場 | 大石良雄ほか１６人忠烈の跡 | 東京タワー | 表参道 | 麻布十番商店街</t>
+  </si>
+  <si>
+    <t>新宿御苑 | 靖国神社の桜</t>
+  </si>
+  <si>
+    <t>護国寺（本堂・月光殿） | 根津神社 | 小石川後楽園 | 小石川植物園 | 東京大学（赤門） | 東大生態調和農学機構 | 湯島聖堂 | 湯島天満宮（表鳥居） | 六義園</t>
+  </si>
+  <si>
+    <t>河童のかっぱ橋本通り | 隅田川</t>
+  </si>
+  <si>
+    <t>橘銀座商店街 | 江戸・東京博物館 | 足立の花火 | 東京スカイツリー | 両国国技館</t>
+  </si>
+  <si>
+    <t>お江戸深川さくらまつり | 亀戸天神 | 亀有のまちなみ | 砂町銀座商店街 | 柴又のまちなみ | 新木場のまちなみ（木材の町） | 深川江戸資料館 | 富岡八幡宮深川八幡まつり | 堀切のまちなみ | 六地蔵</t>
+  </si>
+  <si>
+    <t>世田谷区たまがわ花火大会</t>
+  </si>
+  <si>
+    <t>目黒川（中目黒地域） | 目黒通り（通称：インテリア・ストリート）</t>
+  </si>
+  <si>
+    <t>羽田空港 | 大森ふるさとの浜辺公園 | 大森海苔のふるさと館 | 池上本門寺 | 中里貝塚 | 馬込文士村</t>
+  </si>
+  <si>
+    <t>羽根木公園 | 九品仏浄真寺（仏像群） | 駒沢オリンピック公園 | 豪徳寺（井伊直弼墓） | 松陰神社 | 世田谷２４６ハーフマラソン | 世田谷ボロ市 | 世田谷ものづくり学校 | 世田谷公園 | 世田谷線 | 世田谷代官屋敷 | 世田谷美術館 | 世田谷文学館 | 等々力渓谷 | 徳富蘆花恒春園 | 兵庫島公園 | 野毛大塚古墳</t>
+  </si>
+  <si>
+    <t>スクランブル交差点 | せたがやふるさと区民まつり | ハチ公銅像 | 千鳥ヶ淵の桜 | 代官山・旧山手通りのまちなみ／旧朝倉家住宅 | 代々木公園 | 明治神宮 | 裏原宿</t>
+  </si>
+  <si>
+    <t>新井薬師梅照院 | 中野チャンプルーフェスタ | 中野ブロードウェイ | 哲学堂公園と周辺の桜並木</t>
+  </si>
+  <si>
+    <t>阿佐谷七夕まつり | 沖縄タウン杉並和泉明店街 | 上井草「ガンダム」モニュメント | 杉並アニメーションミュージアム | 東京高円寺阿波おどり</t>
+  </si>
+  <si>
+    <t>トローリング大会</t>
+  </si>
+  <si>
+    <t>お札と切手の博物館 | 旧古河庭園 | 東京書籍株式会社附設教科書図書館東書文庫 | 飛鳥山３つの博物館（紙の博物館、北区飛鳥山博物館、渋沢史料館） | 浮間桜草圃場</t>
+  </si>
+  <si>
+    <t>都電荒川線 | 日暮里繊維街</t>
+  </si>
+  <si>
+    <t>旧中山道「板橋宿」 | 太宰治ゆかりの地 | 白山神社の大ケヤキ</t>
+  </si>
+  <si>
+    <t>三宝寺池 | 清水山憩いの森</t>
+  </si>
+  <si>
+    <t>ギャラクシティ | 旧日光街道千住宿 | 光の祭典 | 西新井大師 | 椿林</t>
+  </si>
+  <si>
+    <t>水元のまちなみ</t>
   </si>
 </sst>
 </file>
@@ -31678,7 +31754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CA5704-02CA-5C41-B58E-EEE3378ADE98}">
   <dimension ref="A1:O206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -31728,7 +31804,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -31775,7 +31851,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -31822,7 +31898,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -31869,7 +31945,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -31916,7 +31992,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -31963,7 +32039,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -32010,7 +32086,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -32057,7 +32133,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -32104,7 +32180,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -32151,7 +32227,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -32198,7 +32274,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -32245,7 +32321,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -32292,7 +32368,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -32339,7 +32415,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -32386,7 +32462,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -32433,7 +32509,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -32480,7 +32556,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -32527,7 +32603,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -32574,7 +32650,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -32621,7 +32697,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -32668,7 +32744,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -32715,7 +32791,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -32762,7 +32838,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -32904,7 +32980,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -32964,7 +33040,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -33024,7 +33100,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -33084,7 +33160,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -33144,7 +33220,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -33204,7 +33280,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -33264,7 +33340,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -33324,7 +33400,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -33384,7 +33460,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -33444,7 +33520,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -33504,7 +33580,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -33564,7 +33640,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -33624,7 +33700,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -33684,7 +33760,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -33744,7 +33820,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -33804,7 +33880,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -33864,7 +33940,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -33924,7 +34000,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -33984,7 +34060,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -34044,7 +34120,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>19</v>
@@ -34104,7 +34180,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
@@ -34164,7 +34240,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -34224,7 +34300,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -34284,7 +34360,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>1980</v>
@@ -34328,7 +34404,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -34375,7 +34451,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -34422,7 +34498,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -34469,7 +34545,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -34516,7 +34592,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -34563,7 +34639,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -34610,7 +34686,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -34657,7 +34733,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -34704,7 +34780,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -34751,7 +34827,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
@@ -34798,7 +34874,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -34845,7 +34921,7 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -34892,7 +34968,7 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -34939,7 +35015,7 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
@@ -34986,7 +35062,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -35033,7 +35109,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
         <v>15</v>
@@ -35080,7 +35156,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -35127,7 +35203,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
@@ -35174,7 +35250,7 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -35221,7 +35297,7 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
@@ -35268,7 +35344,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -35315,7 +35391,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -35362,7 +35438,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
         <v>22</v>
@@ -35409,7 +35485,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C79">
         <v>1980</v>
@@ -35453,7 +35529,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -35513,7 +35589,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -35573,7 +35649,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
@@ -35633,7 +35709,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -35693,7 +35769,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -35753,7 +35829,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -35813,7 +35889,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -35873,7 +35949,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -35933,7 +36009,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -35993,7 +36069,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
@@ -36053,7 +36129,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -36113,7 +36189,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
@@ -36173,7 +36249,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
@@ -36233,7 +36309,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
@@ -36293,7 +36369,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -36353,7 +36429,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
@@ -36413,7 +36489,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
@@ -36473,7 +36549,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
@@ -36533,7 +36609,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
@@ -36593,7 +36669,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s">
         <v>19</v>
@@ -36653,7 +36729,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -36713,7 +36789,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
         <v>21</v>
@@ -36773,7 +36849,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s">
         <v>22</v>
@@ -36833,7 +36909,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C105">
         <v>1980</v>
@@ -36877,7 +36953,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
         <v>0</v>
@@ -36924,7 +37000,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
@@ -36971,7 +37047,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
@@ -37018,7 +37094,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -37065,7 +37141,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -37112,7 +37188,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -37159,7 +37235,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -37206,7 +37282,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -37253,7 +37329,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -37300,7 +37376,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
@@ -37347,7 +37423,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -37394,7 +37470,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
@@ -37441,7 +37517,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
@@ -37488,7 +37564,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -37535,7 +37611,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B120" t="s">
         <v>14</v>
@@ -37582,7 +37658,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B121" t="s">
         <v>15</v>
@@ -37629,7 +37705,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -37676,7 +37752,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B123" t="s">
         <v>17</v>
@@ -37723,7 +37799,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B124" t="s">
         <v>18</v>
@@ -37770,7 +37846,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B125" t="s">
         <v>19</v>
@@ -37817,7 +37893,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
@@ -37864,7 +37940,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B127" t="s">
         <v>21</v>
@@ -37911,7 +37987,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B128" t="s">
         <v>22</v>
@@ -37958,7 +38034,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C131">
         <v>1980</v>
@@ -38002,7 +38078,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
         <v>0</v>
@@ -38062,7 +38138,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
@@ -38122,7 +38198,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -38182,7 +38258,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -38242,7 +38318,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -38302,7 +38378,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -38362,7 +38438,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -38422,7 +38498,7 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -38482,7 +38558,7 @@
     </row>
     <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -38542,7 +38618,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
@@ -38602,7 +38678,7 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -38662,7 +38738,7 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -38722,7 +38798,7 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
@@ -38782,7 +38858,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
@@ -38842,7 +38918,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B146" t="s">
         <v>14</v>
@@ -38902,7 +38978,7 @@
     </row>
     <row r="147" spans="1:15">
       <c r="A147" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B147" t="s">
         <v>15</v>
@@ -38962,7 +39038,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
@@ -39022,7 +39098,7 @@
     </row>
     <row r="149" spans="1:15">
       <c r="A149" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
@@ -39082,7 +39158,7 @@
     </row>
     <row r="150" spans="1:15">
       <c r="A150" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B150" t="s">
         <v>18</v>
@@ -39142,7 +39218,7 @@
     </row>
     <row r="151" spans="1:15">
       <c r="A151" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B151" t="s">
         <v>19</v>
@@ -39202,7 +39278,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -39262,7 +39338,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B153" t="s">
         <v>21</v>
@@ -39322,7 +39398,7 @@
     </row>
     <row r="154" spans="1:15">
       <c r="A154" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B154" t="s">
         <v>22</v>
@@ -39382,7 +39458,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C157">
         <v>1980</v>
@@ -39426,7 +39502,7 @@
     </row>
     <row r="158" spans="1:15">
       <c r="A158" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B158" t="s">
         <v>0</v>
@@ -39473,7 +39549,7 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
@@ -39520,7 +39596,7 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B160" t="s">
         <v>2</v>
@@ -39567,7 +39643,7 @@
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -39614,7 +39690,7 @@
     </row>
     <row r="162" spans="1:15">
       <c r="A162" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
@@ -39661,7 +39737,7 @@
     </row>
     <row r="163" spans="1:15">
       <c r="A163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -39708,7 +39784,7 @@
     </row>
     <row r="164" spans="1:15">
       <c r="A164" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -39755,7 +39831,7 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
@@ -39802,7 +39878,7 @@
     </row>
     <row r="166" spans="1:15">
       <c r="A166" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -39849,7 +39925,7 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
@@ -39896,7 +39972,7 @@
     </row>
     <row r="168" spans="1:15">
       <c r="A168" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -39943,7 +40019,7 @@
     </row>
     <row r="169" spans="1:15">
       <c r="A169" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
@@ -39990,7 +40066,7 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B170" t="s">
         <v>12</v>
@@ -40037,7 +40113,7 @@
     </row>
     <row r="171" spans="1:15">
       <c r="A171" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
@@ -40084,7 +40160,7 @@
     </row>
     <row r="172" spans="1:15">
       <c r="A172" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
         <v>14</v>
@@ -40131,7 +40207,7 @@
     </row>
     <row r="173" spans="1:15">
       <c r="A173" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B173" t="s">
         <v>15</v>
@@ -40178,7 +40254,7 @@
     </row>
     <row r="174" spans="1:15">
       <c r="A174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B174" t="s">
         <v>16</v>
@@ -40225,7 +40301,7 @@
     </row>
     <row r="175" spans="1:15">
       <c r="A175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B175" t="s">
         <v>17</v>
@@ -40272,7 +40348,7 @@
     </row>
     <row r="176" spans="1:15">
       <c r="A176" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B176" t="s">
         <v>18</v>
@@ -40319,7 +40395,7 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B177" t="s">
         <v>19</v>
@@ -40366,7 +40442,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B178" t="s">
         <v>20</v>
@@ -40413,7 +40489,7 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B179" t="s">
         <v>21</v>
@@ -40460,7 +40536,7 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B180" t="s">
         <v>22</v>
@@ -40507,7 +40583,7 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C183">
         <v>1980</v>
@@ -40551,7 +40627,7 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
@@ -40611,7 +40687,7 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B185" t="s">
         <v>1</v>
@@ -40671,7 +40747,7 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B186" t="s">
         <v>2</v>
@@ -40731,7 +40807,7 @@
     </row>
     <row r="187" spans="1:15">
       <c r="A187" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -40791,7 +40867,7 @@
     </row>
     <row r="188" spans="1:15">
       <c r="A188" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
@@ -40851,7 +40927,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -40911,7 +40987,7 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -40971,7 +41047,7 @@
     </row>
     <row r="191" spans="1:15">
       <c r="A191" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -41031,7 +41107,7 @@
     </row>
     <row r="192" spans="1:15">
       <c r="A192" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -41091,7 +41167,7 @@
     </row>
     <row r="193" spans="1:15">
       <c r="A193" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B193" t="s">
         <v>9</v>
@@ -41151,7 +41227,7 @@
     </row>
     <row r="194" spans="1:15">
       <c r="A194" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
@@ -41211,7 +41287,7 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
@@ -41271,7 +41347,7 @@
     </row>
     <row r="196" spans="1:15">
       <c r="A196" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B196" t="s">
         <v>12</v>
@@ -41331,7 +41407,7 @@
     </row>
     <row r="197" spans="1:15">
       <c r="A197" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B197" t="s">
         <v>13</v>
@@ -41391,7 +41467,7 @@
     </row>
     <row r="198" spans="1:15">
       <c r="A198" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B198" t="s">
         <v>14</v>
@@ -41451,7 +41527,7 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
         <v>15</v>
@@ -41511,7 +41587,7 @@
     </row>
     <row r="200" spans="1:15">
       <c r="A200" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
@@ -41571,7 +41647,7 @@
     </row>
     <row r="201" spans="1:15">
       <c r="A201" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B201" t="s">
         <v>17</v>
@@ -41631,7 +41707,7 @@
     </row>
     <row r="202" spans="1:15">
       <c r="A202" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B202" t="s">
         <v>18</v>
@@ -41691,7 +41767,7 @@
     </row>
     <row r="203" spans="1:15">
       <c r="A203" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B203" t="s">
         <v>19</v>
@@ -41751,7 +41827,7 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
         <v>20</v>
@@ -41811,7 +41887,7 @@
     </row>
     <row r="205" spans="1:15">
       <c r="A205" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B205" t="s">
         <v>21</v>
@@ -41871,7 +41947,7 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B206" t="s">
         <v>22</v>
@@ -41934,4 +42010,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F884BA23-EC77-D642-A8AF-53E134ECC3A6}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>